--- a/entregaFinal/src/registerData.xlsx
+++ b/entregaFinal/src/registerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\git\entregafinal\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\selenium\entregaFinal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930BB24-443A-4C58-8F91-23589137A5AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366547DE-338E-41F0-9AAA-1E7E663B798F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="8295" xr2:uid="{FA9E2868-C39F-42AC-8CF2-8679C1D4CDCB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{FA9E2868-C39F-42AC-8CF2-8679C1D4CDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,37 +93,37 @@
     <t>Arturo</t>
   </si>
   <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>juan_adretti@dispostable.com</t>
-  </si>
-  <si>
-    <t>Andretti</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>felipe_sosa@dispostable.com</t>
-  </si>
-  <si>
-    <t>Manrique</t>
-  </si>
-  <si>
-    <t>juanjose_manrique@dispostable.com</t>
-  </si>
-  <si>
-    <t>Fring</t>
-  </si>
-  <si>
-    <t>arturo_fring@dispostable.com</t>
-  </si>
-  <si>
-    <t>miguel_lopez@dispostable.com</t>
-  </si>
-  <si>
     <t>Miguel</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Franky</t>
+  </si>
+  <si>
+    <t>Vitter</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>arturo_kent@dispostable.com</t>
+  </si>
+  <si>
+    <t>juanjose_close@dispostable.com</t>
+  </si>
+  <si>
+    <t>felipe_vitter@dispostable.com</t>
+  </si>
+  <si>
+    <t>juan_franky@dispostable.com</t>
+  </si>
+  <si>
+    <t>miguel_rows@dispostable.com</t>
   </si>
 </sst>
 </file>
@@ -489,19 +489,19 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -536,18 +536,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D2">
-        <v>99362544</v>
+        <v>99362533</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -579,10 +579,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>99362211</v>
+        <v>99362233</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -606,7 +606,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -614,10 +614,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>99362322</v>
+        <v>99362333</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -641,18 +641,18 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>99362632</v>
+        <v>99362633</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -676,18 +676,18 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>99362852</v>
+        <v>99362833</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>

--- a/entregaFinal/src/registerData.xlsx
+++ b/entregaFinal/src/registerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\selenium\entregaFinal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366547DE-338E-41F0-9AAA-1E7E663B798F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16657ACF-7A50-4ADC-B8DB-2F8266215D11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{FA9E2868-C39F-42AC-8CF2-8679C1D4CDCB}"/>
   </bookViews>
@@ -96,34 +96,34 @@
     <t>Miguel</t>
   </si>
   <si>
-    <t>Rows</t>
-  </si>
-  <si>
-    <t>Franky</t>
-  </si>
-  <si>
-    <t>Vitter</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>arturo_kent@dispostable.com</t>
-  </si>
-  <si>
-    <t>juanjose_close@dispostable.com</t>
-  </si>
-  <si>
-    <t>felipe_vitter@dispostable.com</t>
-  </si>
-  <si>
-    <t>juan_franky@dispostable.com</t>
-  </si>
-  <si>
-    <t>miguel_rows@dispostable.com</t>
+    <t>fritz</t>
+  </si>
+  <si>
+    <t>downey</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Podolsky</t>
+  </si>
+  <si>
+    <t>Fretch</t>
+  </si>
+  <si>
+    <t>arturo_fretch@dispostable.com</t>
+  </si>
+  <si>
+    <t>juanjose_luca@dispostable.com</t>
+  </si>
+  <si>
+    <t>felipe_river@dispostable.com</t>
+  </si>
+  <si>
+    <t>juan_downey@dispostable.com</t>
+  </si>
+  <si>
+    <t>miguel_fritz@dispostable.com</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/entregaFinal/src/registerData.xlsx
+++ b/entregaFinal/src/registerData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\selenium\entregaFinal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16657ACF-7A50-4ADC-B8DB-2F8266215D11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815FA4B-D012-4BAE-AA0B-B19F1F965ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{FA9E2868-C39F-42AC-8CF2-8679C1D4CDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>passw</t>
   </si>
@@ -96,34 +97,22 @@
     <t>Miguel</t>
   </si>
   <si>
-    <t>fritz</t>
-  </si>
-  <si>
-    <t>downey</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Podolsky</t>
-  </si>
-  <si>
-    <t>Fretch</t>
-  </si>
-  <si>
-    <t>arturo_fretch@dispostable.com</t>
-  </si>
-  <si>
-    <t>juanjose_luca@dispostable.com</t>
-  </si>
-  <si>
-    <t>felipe_river@dispostable.com</t>
-  </si>
-  <si>
-    <t>juan_downey@dispostable.com</t>
-  </si>
-  <si>
-    <t>miguel_fritz@dispostable.com</t>
+    <t>1@dispostable.com</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>silvas</t>
+  </si>
+  <si>
+    <t>riveiro</t>
+  </si>
+  <si>
+    <t>sheppard</t>
+  </si>
+  <si>
+    <t>hans</t>
   </si>
 </sst>
 </file>
@@ -168,9 +157,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -489,7 +479,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +531,11 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f ca="1">CONCATENATE(B2,Hoja2!B2,Hoja2!B1)</f>
+        <v>hans221@dispostable.com</v>
       </c>
       <c r="D2">
         <v>99362533</v>
@@ -576,10 +567,11 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f ca="1">CONCATENATE(B3,Hoja2!F2,Hoja2!B1)</f>
+        <v>sheppard1061@dispostable.com</v>
       </c>
       <c r="D3">
         <v>99362233</v>
@@ -611,10 +603,11 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1">CONCATENATE(B4,Hoja2!J2,Hoja2!B1)</f>
+        <v>riveiro1841@dispostable.com</v>
       </c>
       <c r="D4">
         <v>99362333</v>
@@ -646,10 +639,11 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f ca="1">CONCATENATE(B5,Hoja2!M2,Hoja2!B1)</f>
+        <v>silvas2191@dispostable.com</v>
       </c>
       <c r="D5">
         <v>99362633</v>
@@ -681,10 +675,11 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f ca="1">CONCATENATE(B6,Hoja2!P2,Hoja2!B1)</f>
+        <v>mist2971@dispostable.com</v>
       </c>
       <c r="D6">
         <v>99362833</v>
@@ -713,13 +708,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{455F215B-B939-4D6A-BB8E-24779D53A495}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A04AA957-152C-48FE-AC3D-C2F171FB1891}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2763700E-8845-46F8-ACED-E16C21A3CC02}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{35380EC4-33FB-4CD5-ADFB-6EB6A8FD61CF}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B8620815-16BF-4BB8-AB68-0913626A2040}"/>
+    <hyperlink ref="C2" r:id="rId1" display="miguel_hans@dispostable.com" xr:uid="{455F215B-B939-4D6A-BB8E-24779D53A495}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA2940-3F0E-4F5E-986A-BEC4D15216BD}">
+  <dimension ref="B1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <f ca="1">RANDBETWEEN(101,150)</f>
+        <v>106</v>
+      </c>
+      <c r="J2" s="2">
+        <f ca="1">RANDBETWEEN(151,200)</f>
+        <v>184</v>
+      </c>
+      <c r="M2" s="2">
+        <f ca="1">RANDBETWEEN(201,250)</f>
+        <v>219</v>
+      </c>
+      <c r="P2" s="2">
+        <f ca="1">RANDBETWEEN(251,300)</f>
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0D8366C7-9D26-433F-9F5A-CAC81C67E5F4}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{0D7EBF62-6757-4258-93C7-AADBE566CF7E}"/>
+    <hyperlink ref="J1" r:id="rId3" xr:uid="{310B3BF5-A507-4B22-AFF4-7A447E3142B1}"/>
+    <hyperlink ref="M1" r:id="rId4" xr:uid="{42CA16DF-C60C-4688-B4D8-3166B92C2729}"/>
+    <hyperlink ref="P1" r:id="rId5" xr:uid="{024CA235-72C1-4F7E-B13E-75C361039146}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>